--- a/Code/Results/Cases/Case_1_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501662</v>
+        <v>15.46388812271717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.929142561831634</v>
+        <v>10.19202271113368</v>
       </c>
       <c r="E2">
-        <v>10.76736216989137</v>
+        <v>13.99772134997894</v>
       </c>
       <c r="F2">
-        <v>27.24257837156814</v>
+        <v>28.00002925415852</v>
       </c>
       <c r="G2">
-        <v>35.07036351202716</v>
+        <v>27.9926249224201</v>
       </c>
       <c r="H2">
-        <v>9.880956221490765</v>
+        <v>13.21923212800053</v>
       </c>
       <c r="I2">
-        <v>69.43069910385765</v>
+        <v>42.00370031271751</v>
       </c>
       <c r="J2">
-        <v>6.350288244501964</v>
+        <v>9.644818864116688</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.6504873962885</v>
+        <v>20.1862790208076</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225605</v>
+        <v>14.62529716494162</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.747537647647387</v>
+        <v>10.1879277601034</v>
       </c>
       <c r="E3">
-        <v>10.35077646196036</v>
+        <v>13.96069026936255</v>
       </c>
       <c r="F3">
-        <v>25.76044373170516</v>
+        <v>27.72584099711391</v>
       </c>
       <c r="G3">
-        <v>32.81140880590392</v>
+        <v>27.34581590149833</v>
       </c>
       <c r="H3">
-        <v>9.523449135411214</v>
+        <v>13.19068893700772</v>
       </c>
       <c r="I3">
-        <v>64.78771038057241</v>
+        <v>39.58439637612544</v>
       </c>
       <c r="J3">
-        <v>6.203910081299268</v>
+        <v>9.646505256136761</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.68785064219426</v>
+        <v>20.02620259791259</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639429</v>
+        <v>14.08227189835594</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.637638983567003</v>
+        <v>10.18718855004983</v>
       </c>
       <c r="E4">
-        <v>10.09393799944293</v>
+        <v>13.94095794876877</v>
       </c>
       <c r="F4">
-        <v>24.82588725908339</v>
+        <v>27.56376897813316</v>
       </c>
       <c r="G4">
-        <v>31.36756249288893</v>
+        <v>26.9496947766748</v>
       </c>
       <c r="H4">
-        <v>9.303899349807502</v>
+        <v>13.17586455310832</v>
       </c>
       <c r="I4">
-        <v>61.7702325409574</v>
+        <v>38.02187358361297</v>
       </c>
       <c r="J4">
-        <v>6.116305738786446</v>
+        <v>9.649197674905507</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.0832796910942</v>
+        <v>19.93251056327971</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455038</v>
+        <v>13.85402509196118</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.593308729239212</v>
+        <v>10.18733472167911</v>
       </c>
       <c r="E5">
-        <v>9.989154270753332</v>
+        <v>13.93367796296435</v>
       </c>
       <c r="F5">
-        <v>24.43931282760784</v>
+        <v>27.49937375959707</v>
       </c>
       <c r="G5">
-        <v>30.76519909385387</v>
+        <v>26.78879404821963</v>
       </c>
       <c r="H5">
-        <v>9.214538810583186</v>
+        <v>13.17050689977642</v>
       </c>
       <c r="I5">
-        <v>60.49838825984555</v>
+        <v>37.36626242888532</v>
       </c>
       <c r="J5">
-        <v>6.08120620687777</v>
+        <v>9.650711919510597</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.83381537688479</v>
+        <v>19.89552268896703</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556358</v>
+        <v>13.81570835831321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.585976650054729</v>
+        <v>10.18738604175381</v>
       </c>
       <c r="E6">
-        <v>9.971752273544796</v>
+        <v>13.93251524037363</v>
       </c>
       <c r="F6">
-        <v>24.37479038084112</v>
+        <v>27.488782674454</v>
       </c>
       <c r="G6">
-        <v>30.66434366534658</v>
+        <v>26.76211597885145</v>
       </c>
       <c r="H6">
-        <v>9.199710702393469</v>
+        <v>13.16965865087502</v>
       </c>
       <c r="I6">
-        <v>60.28464309963406</v>
+        <v>37.25627603765865</v>
       </c>
       <c r="J6">
-        <v>6.075415018752548</v>
+        <v>9.65098855693036</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.79221483937539</v>
+        <v>19.8894539280562</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6172129738281</v>
+        <v>14.07922169308636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.637039223601779</v>
+        <v>10.18718870862609</v>
       </c>
       <c r="E7">
-        <v>10.09252513338274</v>
+        <v>13.94085668000986</v>
       </c>
       <c r="F7">
-        <v>24.82069636809537</v>
+        <v>27.56289374781946</v>
       </c>
       <c r="G7">
-        <v>31.3594949439498</v>
+        <v>26.94752234594259</v>
       </c>
       <c r="H7">
-        <v>9.302693603102787</v>
+        <v>13.17578952584707</v>
       </c>
       <c r="I7">
-        <v>61.75325121813994</v>
+        <v>38.01310743513349</v>
       </c>
       <c r="J7">
-        <v>6.115829907560282</v>
+        <v>9.649216407453391</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.07992742946534</v>
+        <v>19.93200685707592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961786</v>
+        <v>15.18063999774328</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.866221189033997</v>
+        <v>10.19024303432427</v>
       </c>
       <c r="E8">
-        <v>10.62402434875116</v>
+        <v>13.98433288131076</v>
       </c>
       <c r="F8">
-        <v>26.73685880228107</v>
+        <v>27.90422929772455</v>
       </c>
       <c r="G8">
-        <v>34.30342519974121</v>
+        <v>27.76954980634348</v>
       </c>
       <c r="H8">
-        <v>9.757763095630745</v>
+        <v>13.20883245916042</v>
       </c>
       <c r="I8">
-        <v>67.86420339647036</v>
+        <v>41.18578900812587</v>
       </c>
       <c r="J8">
-        <v>6.299362509181311</v>
+        <v>9.645056714851505</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.32153675665968</v>
+        <v>20.13015363980903</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021190062</v>
+        <v>17.11354650569201</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.326301265036027</v>
+        <v>10.2102635689738</v>
       </c>
       <c r="E9">
-        <v>11.65237331931918</v>
+        <v>14.09315794686801</v>
       </c>
       <c r="F9">
-        <v>30.28533448555867</v>
+        <v>28.6201392906549</v>
       </c>
       <c r="G9">
-        <v>39.65152590671436</v>
+        <v>29.37840297970911</v>
       </c>
       <c r="H9">
-        <v>10.6452771101781</v>
+        <v>13.29485483016452</v>
       </c>
       <c r="I9">
-        <v>78.54004445610417</v>
+        <v>46.77879708202151</v>
       </c>
       <c r="J9">
-        <v>6.676078659333085</v>
+        <v>9.650023774114835</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.63875778876984</v>
+        <v>20.55345977065718</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.02515941378262</v>
+        <v>18.39153772040988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.668235757725419</v>
+        <v>10.23344268846874</v>
       </c>
       <c r="E10">
-        <v>12.39319218433125</v>
+        <v>14.1870649376271</v>
       </c>
       <c r="F10">
-        <v>32.75096282969013</v>
+        <v>29.16991955979584</v>
       </c>
       <c r="G10">
-        <v>43.35411818721919</v>
+        <v>30.54415329235382</v>
       </c>
       <c r="H10">
-        <v>11.28920877561122</v>
+        <v>13.37067982789178</v>
       </c>
       <c r="I10">
-        <v>85.60880529061011</v>
+        <v>50.48748964831373</v>
       </c>
       <c r="J10">
-        <v>6.961589014260484</v>
+        <v>9.661635036204377</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.25927489619216</v>
+        <v>20.88320280852609</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10503410527766</v>
+        <v>18.94157951104755</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.824176873576695</v>
+        <v>10.24580427003773</v>
       </c>
       <c r="E11">
-        <v>12.72605658028623</v>
+        <v>14.23271206016586</v>
       </c>
       <c r="F11">
-        <v>33.84037352165998</v>
+        <v>29.42418676710619</v>
       </c>
       <c r="G11">
-        <v>44.97216782544185</v>
+        <v>31.06815545768676</v>
       </c>
       <c r="H11">
-        <v>11.57958559616365</v>
+        <v>13.40783664559342</v>
       </c>
       <c r="I11">
-        <v>88.66174843512333</v>
+        <v>52.08534703260537</v>
       </c>
       <c r="J11">
-        <v>7.093104964142618</v>
+        <v>9.66863450946393</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.08420859239373</v>
+        <v>21.036730358788</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50609682796122</v>
+        <v>19.14533481163442</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.883252143055747</v>
+        <v>10.25074430124067</v>
       </c>
       <c r="E12">
-        <v>12.85145187575496</v>
+        <v>14.25040869153869</v>
       </c>
       <c r="F12">
-        <v>34.24821943123362</v>
+        <v>29.52098477406991</v>
       </c>
       <c r="G12">
-        <v>45.57550703438116</v>
+        <v>31.26546135151553</v>
       </c>
       <c r="H12">
-        <v>11.68912969130207</v>
+        <v>13.42228238153746</v>
       </c>
       <c r="I12">
-        <v>89.79490566287627</v>
+        <v>52.67744494454099</v>
       </c>
       <c r="J12">
-        <v>7.143124101906016</v>
+        <v>9.671530688125269</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.39789613842311</v>
+        <v>21.09532649437566</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42006755568606</v>
+        <v>19.10165446781605</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.870528631660879</v>
+        <v>10.2496688993483</v>
       </c>
       <c r="E13">
-        <v>12.82447554826532</v>
+        <v>14.24657929015571</v>
       </c>
       <c r="F13">
-        <v>34.16059146935534</v>
+        <v>29.50011618201164</v>
       </c>
       <c r="G13">
-        <v>45.44598149977126</v>
+        <v>31.22302119215394</v>
       </c>
       <c r="H13">
-        <v>11.66555649177792</v>
+        <v>13.4191546736729</v>
       </c>
       <c r="I13">
-        <v>89.55187185858696</v>
+        <v>52.55050504930303</v>
       </c>
       <c r="J13">
-        <v>7.132342182482092</v>
+        <v>9.670896042929174</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.33056228089171</v>
+        <v>21.08268715005322</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.13818630349799</v>
+        <v>18.95843357864365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.829036723090231</v>
+        <v>10.24620551355724</v>
       </c>
       <c r="E14">
-        <v>12.73638628952625</v>
+        <v>14.23415979427644</v>
       </c>
       <c r="F14">
-        <v>33.87402139050091</v>
+        <v>29.43214062403234</v>
       </c>
       <c r="G14">
-        <v>45.02199189706986</v>
+        <v>31.08441160933745</v>
       </c>
       <c r="H14">
-        <v>11.58860640194349</v>
+        <v>13.40901763072708</v>
       </c>
       <c r="I14">
-        <v>88.7554306517542</v>
+        <v>52.13432002565632</v>
       </c>
       <c r="J14">
-        <v>7.097215810650953</v>
+        <v>9.668867865316763</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.11011713033179</v>
+        <v>21.041542187005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96450739264488</v>
+        <v>18.87011552320599</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.803623947890645</v>
+        <v>10.24411774134096</v>
       </c>
       <c r="E15">
-        <v>12.68234257678707</v>
+        <v>14.22660571722196</v>
       </c>
       <c r="F15">
-        <v>33.69787733352865</v>
+        <v>29.3905677953432</v>
       </c>
       <c r="G15">
-        <v>44.76106954905099</v>
+        <v>30.99935692190976</v>
       </c>
       <c r="H15">
-        <v>11.54141698474386</v>
+        <v>13.40285702873039</v>
       </c>
       <c r="I15">
-        <v>88.26461613820989</v>
+        <v>51.87770123785431</v>
       </c>
       <c r="J15">
-        <v>7.075727673001365</v>
+        <v>9.667657493565205</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.97442915169785</v>
+        <v>21.01639798227277</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95347700689892</v>
+        <v>18.3549581758265</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.658049621209879</v>
+        <v>10.23267120236419</v>
       </c>
       <c r="E16">
-        <v>12.37135007334841</v>
+        <v>14.18413987375155</v>
       </c>
       <c r="F16">
-        <v>32.67911284823858</v>
+        <v>29.15337906325784</v>
       </c>
       <c r="G16">
-        <v>43.2470528980537</v>
+        <v>30.50976287739119</v>
       </c>
       <c r="H16">
-        <v>11.2701761467811</v>
+        <v>13.36830448962632</v>
       </c>
       <c r="I16">
-        <v>85.40605400812082</v>
+        <v>50.38125698588405</v>
       </c>
       <c r="J16">
-        <v>6.953025388091326</v>
+        <v>9.66121205336599</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.21195203974025</v>
+        <v>20.87323624657447</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.31904709826859</v>
+        <v>18.03087938850338</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.568820126177539</v>
+        <v>10.22611296863152</v>
       </c>
       <c r="E17">
-        <v>12.1794594680501</v>
+        <v>14.15883154440653</v>
       </c>
       <c r="F17">
-        <v>32.04582423653041</v>
+        <v>29.00887749292154</v>
       </c>
       <c r="G17">
-        <v>42.30136915081184</v>
+        <v>30.20763995618443</v>
       </c>
       <c r="H17">
-        <v>11.10308604386205</v>
+        <v>13.34778449073917</v>
       </c>
       <c r="I17">
-        <v>83.6110761353945</v>
+        <v>49.44026495104949</v>
       </c>
       <c r="J17">
-        <v>6.878156084297926</v>
+        <v>9.657696969306752</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.79509297475172</v>
+        <v>20.78627997669675</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.94886706821209</v>
+        <v>17.84153069387959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.517536334960413</v>
+        <v>10.22251205291303</v>
       </c>
       <c r="E18">
-        <v>12.06870196166398</v>
+        <v>14.14455113750949</v>
       </c>
       <c r="F18">
-        <v>31.67854091553777</v>
+        <v>28.92616169188516</v>
       </c>
       <c r="G18">
-        <v>41.75118650442432</v>
+        <v>30.03328550724626</v>
       </c>
       <c r="H18">
-        <v>11.00674208214253</v>
+        <v>13.33623314540066</v>
       </c>
       <c r="I18">
-        <v>82.56331114050373</v>
+        <v>48.89063678530206</v>
       </c>
       <c r="J18">
-        <v>6.835248061867961</v>
+        <v>9.655836931840525</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.55353961578016</v>
+        <v>20.73659984591648</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.8226196895163</v>
+        <v>17.77691535278072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.500180255097801</v>
+        <v>10.22132231765938</v>
       </c>
       <c r="E19">
-        <v>12.03113694804148</v>
+        <v>14.1397637826668</v>
       </c>
       <c r="F19">
-        <v>31.55366691015655</v>
+        <v>28.89822649347399</v>
       </c>
       <c r="G19">
-        <v>41.56382679877206</v>
+        <v>29.97415906526003</v>
       </c>
       <c r="H19">
-        <v>10.97408249340913</v>
+        <v>13.33236543278871</v>
       </c>
       <c r="I19">
-        <v>82.20590737232422</v>
+        <v>48.7031053676155</v>
       </c>
       <c r="J19">
-        <v>6.820747362980827</v>
+        <v>9.655234972994768</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.47144909934848</v>
+        <v>20.719837975887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38712771213807</v>
+        <v>18.06568338928438</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.578315013399421</v>
+        <v>10.22679340089665</v>
       </c>
       <c r="E20">
-        <v>12.19992709184483</v>
+        <v>14.16149713654993</v>
       </c>
       <c r="F20">
-        <v>32.11355332700065</v>
+        <v>29.02421940351402</v>
       </c>
       <c r="G20">
-        <v>42.4026847500951</v>
+        <v>30.23986323467777</v>
       </c>
       <c r="H20">
-        <v>11.12089811782896</v>
+        <v>13.34994293450564</v>
       </c>
       <c r="I20">
-        <v>83.80373907579217</v>
+        <v>49.54130510666898</v>
       </c>
       <c r="J20">
-        <v>6.88611017295081</v>
+        <v>9.658054425068856</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.83965378849384</v>
+        <v>20.79550231663106</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22119358573329</v>
+        <v>19.00062425561376</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.841223490870671</v>
+        <v>10.24721578547861</v>
       </c>
       <c r="E21">
-        <v>12.76227834561425</v>
+        <v>14.23779662850087</v>
       </c>
       <c r="F21">
-        <v>33.95832145649113</v>
+        <v>29.45209347683171</v>
       </c>
       <c r="G21">
-        <v>45.1467811024341</v>
+        <v>31.12515671041986</v>
       </c>
       <c r="H21">
-        <v>11.61122009110747</v>
+        <v>13.41198500623147</v>
       </c>
       <c r="I21">
-        <v>88.98998307435127</v>
+        <v>52.25691677039583</v>
       </c>
       <c r="J21">
-        <v>7.10752751462765</v>
+        <v>9.669456935443923</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.17500433431803</v>
+        <v>21.05361540318239</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.37412346042088</v>
+        <v>19.58522931221873</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.013176768260132</v>
+        <v>10.26207120930413</v>
       </c>
       <c r="E22">
-        <v>13.12598524774175</v>
+        <v>14.29005360826744</v>
       </c>
       <c r="F22">
-        <v>35.13687527096465</v>
+        <v>29.73468108382609</v>
       </c>
       <c r="G22">
-        <v>46.88562788043161</v>
+        <v>31.697115733862</v>
       </c>
       <c r="H22">
-        <v>11.92924141047656</v>
+        <v>13.4547163867481</v>
       </c>
       <c r="I22">
-        <v>92.24610226002399</v>
+        <v>53.9560509119212</v>
       </c>
       <c r="J22">
-        <v>7.25349565129613</v>
+        <v>9.678340111134078</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.07869950038393</v>
+        <v>21.22495736481463</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.76290705893634</v>
+        <v>19.27564066207565</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.921399747296516</v>
+        <v>10.25400542469682</v>
       </c>
       <c r="E23">
-        <v>12.93223246155926</v>
+        <v>14.26194779234118</v>
       </c>
       <c r="F23">
-        <v>34.51026252081175</v>
+        <v>29.58361782606772</v>
       </c>
       <c r="G23">
-        <v>45.96250545120223</v>
+        <v>31.39252465651737</v>
       </c>
       <c r="H23">
-        <v>11.7597420995912</v>
+        <v>13.43171277708358</v>
       </c>
       <c r="I23">
-        <v>90.52029302560395</v>
+        <v>53.05615300520156</v>
       </c>
       <c r="J23">
-        <v>7.17547935853632</v>
+        <v>9.673468545733964</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.59904883524155</v>
+        <v>21.13328259245116</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35636541739247</v>
+        <v>18.04995794057753</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.574022324250206</v>
+        <v>10.22648524933143</v>
       </c>
       <c r="E24">
-        <v>12.19067503578664</v>
+        <v>14.16029118155925</v>
       </c>
       <c r="F24">
-        <v>32.082942958965</v>
+        <v>29.01728219750559</v>
       </c>
       <c r="G24">
-        <v>42.35690021348303</v>
+        <v>30.22529712948352</v>
       </c>
       <c r="H24">
-        <v>11.11284615255835</v>
+        <v>13.34896633560851</v>
       </c>
       <c r="I24">
-        <v>83.71668543464079</v>
+        <v>49.49565175058866</v>
       </c>
       <c r="J24">
-        <v>6.882513706472721</v>
+        <v>9.657892318257417</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.8195137443137</v>
+        <v>20.79133192062994</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.5583067083431</v>
+        <v>16.61539234780995</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.20097699155605</v>
+        <v>10.20335309967254</v>
       </c>
       <c r="E25">
-        <v>11.37637603864036</v>
+        <v>14.0612345977308</v>
       </c>
       <c r="F25">
-        <v>29.34947784744206</v>
+        <v>28.42194760795592</v>
       </c>
       <c r="G25">
-        <v>38.22958794722869</v>
+        <v>28.94502986164266</v>
       </c>
       <c r="H25">
-        <v>10.40628723743083</v>
+        <v>13.26934136391781</v>
       </c>
       <c r="I25">
-        <v>75.78973891881779</v>
+        <v>45.33509062920486</v>
       </c>
       <c r="J25">
-        <v>6.572530982669179</v>
+        <v>9.647278360295349</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.02571677134748</v>
+        <v>20.43547031540893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.46388812271717</v>
+        <v>24.31785756501655</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.19202271113368</v>
+        <v>6.929142561831707</v>
       </c>
       <c r="E2">
-        <v>13.99772134997894</v>
+        <v>10.76736216989136</v>
       </c>
       <c r="F2">
-        <v>28.00002925415852</v>
+        <v>27.24257837156815</v>
       </c>
       <c r="G2">
-        <v>27.9926249224201</v>
+        <v>35.07036351202718</v>
       </c>
       <c r="H2">
-        <v>13.21923212800053</v>
+        <v>9.880956221490765</v>
       </c>
       <c r="I2">
-        <v>42.00370031271751</v>
+        <v>69.43069910385718</v>
       </c>
       <c r="J2">
-        <v>9.644818864116688</v>
+        <v>6.350288244501952</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.1862790208076</v>
+        <v>18.65048739628849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.62529716494162</v>
+        <v>22.68411345225612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.1879277601034</v>
+        <v>6.747537647647387</v>
       </c>
       <c r="E3">
-        <v>13.96069026936255</v>
+        <v>10.35077646196032</v>
       </c>
       <c r="F3">
-        <v>27.72584099711391</v>
+        <v>25.76044373170517</v>
       </c>
       <c r="G3">
-        <v>27.34581590149833</v>
+        <v>32.81140880590394</v>
       </c>
       <c r="H3">
-        <v>13.19068893700772</v>
+        <v>9.523449135411214</v>
       </c>
       <c r="I3">
-        <v>39.58439637612544</v>
+        <v>64.78771038057258</v>
       </c>
       <c r="J3">
-        <v>9.646505256136761</v>
+        <v>6.203910081299261</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.02620259791259</v>
+        <v>17.68785064219426</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.08227189835594</v>
+        <v>21.62318182639427</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.18718855004983</v>
+        <v>6.63763898356701</v>
       </c>
       <c r="E4">
-        <v>13.94095794876877</v>
+        <v>10.09393799944287</v>
       </c>
       <c r="F4">
-        <v>27.56376897813316</v>
+        <v>24.82588725908334</v>
       </c>
       <c r="G4">
-        <v>26.9496947766748</v>
+        <v>31.36756249288888</v>
       </c>
       <c r="H4">
-        <v>13.17586455310832</v>
+        <v>9.303899349807466</v>
       </c>
       <c r="I4">
-        <v>38.02187358361297</v>
+        <v>61.77023254095738</v>
       </c>
       <c r="J4">
-        <v>9.649197674905507</v>
+        <v>6.116305738786383</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.93251056327971</v>
+        <v>17.08327969109414</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85402509196118</v>
+        <v>21.17618423455042</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.18733472167911</v>
+        <v>6.593308729239218</v>
       </c>
       <c r="E5">
-        <v>13.93367796296435</v>
+        <v>9.989154270753392</v>
       </c>
       <c r="F5">
-        <v>27.49937375959707</v>
+        <v>24.43931282760784</v>
       </c>
       <c r="G5">
-        <v>26.78879404821963</v>
+        <v>30.76519909385388</v>
       </c>
       <c r="H5">
-        <v>13.17050689977642</v>
+        <v>9.21453881058318</v>
       </c>
       <c r="I5">
-        <v>37.36626242888532</v>
+        <v>60.4983882598456</v>
       </c>
       <c r="J5">
-        <v>9.650711919510597</v>
+        <v>6.081206206877833</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.89552268896703</v>
+        <v>16.83381537688477</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.81570835831321</v>
+        <v>21.10107177556363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.18738604175381</v>
+        <v>6.585976650054779</v>
       </c>
       <c r="E6">
-        <v>13.93251524037363</v>
+        <v>9.971752273544794</v>
       </c>
       <c r="F6">
-        <v>27.488782674454</v>
+        <v>24.37479038084115</v>
       </c>
       <c r="G6">
-        <v>26.76211597885145</v>
+        <v>30.66434366534659</v>
       </c>
       <c r="H6">
-        <v>13.16965865087502</v>
+        <v>9.199710702393475</v>
       </c>
       <c r="I6">
-        <v>37.25627603765865</v>
+        <v>60.2846430996342</v>
       </c>
       <c r="J6">
-        <v>9.65098855693036</v>
+        <v>6.07541501875254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.8894539280562</v>
+        <v>16.79221483937539</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.07922169308636</v>
+        <v>21.61721297382809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.18718870862609</v>
+        <v>6.637039223601729</v>
       </c>
       <c r="E7">
-        <v>13.94085668000986</v>
+        <v>10.09252513338273</v>
       </c>
       <c r="F7">
-        <v>27.56289374781946</v>
+        <v>24.82069636809536</v>
       </c>
       <c r="G7">
-        <v>26.94752234594259</v>
+        <v>31.35949494394978</v>
       </c>
       <c r="H7">
-        <v>13.17578952584707</v>
+        <v>9.302693603102799</v>
       </c>
       <c r="I7">
-        <v>38.01310743513349</v>
+        <v>61.75325121813999</v>
       </c>
       <c r="J7">
-        <v>9.649216407453391</v>
+        <v>6.115829907560324</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.93200685707592</v>
+        <v>17.07992742946534</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.18063999774328</v>
+        <v>23.7664634596178</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.19024303432427</v>
+        <v>6.866221189033929</v>
       </c>
       <c r="E8">
-        <v>13.98433288131076</v>
+        <v>10.62402434875117</v>
       </c>
       <c r="F8">
-        <v>27.90422929772455</v>
+        <v>26.73685880228104</v>
       </c>
       <c r="G8">
-        <v>27.76954980634348</v>
+        <v>34.3034251997412</v>
       </c>
       <c r="H8">
-        <v>13.20883245916042</v>
+        <v>9.757763095630722</v>
       </c>
       <c r="I8">
-        <v>41.18578900812587</v>
+        <v>67.86420339647047</v>
       </c>
       <c r="J8">
-        <v>9.645056714851505</v>
+        <v>6.29936250918136</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.13015363980903</v>
+        <v>18.32153675665967</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.11354650569201</v>
+        <v>27.52843021190057</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.2102635689738</v>
+        <v>7.326301265035992</v>
       </c>
       <c r="E9">
-        <v>14.09315794686801</v>
+        <v>11.65237331931919</v>
       </c>
       <c r="F9">
-        <v>28.6201392906549</v>
+        <v>30.28533448555866</v>
       </c>
       <c r="G9">
-        <v>29.37840297970911</v>
+        <v>39.65152590671428</v>
       </c>
       <c r="H9">
-        <v>13.29485483016452</v>
+        <v>10.64527711017812</v>
       </c>
       <c r="I9">
-        <v>46.77879708202151</v>
+        <v>78.54004445610404</v>
       </c>
       <c r="J9">
-        <v>9.650023774114835</v>
+        <v>6.67607865933308</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.55345977065718</v>
+        <v>20.63875778876984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.39153772040988</v>
+        <v>30.02515941378262</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.23344268846874</v>
+        <v>7.668235757725411</v>
       </c>
       <c r="E10">
-        <v>14.1870649376271</v>
+        <v>12.39319218433124</v>
       </c>
       <c r="F10">
-        <v>29.16991955979584</v>
+        <v>32.75096282969013</v>
       </c>
       <c r="G10">
-        <v>30.54415329235382</v>
+        <v>43.35411818721921</v>
       </c>
       <c r="H10">
-        <v>13.37067982789178</v>
+        <v>11.28920877561118</v>
       </c>
       <c r="I10">
-        <v>50.48748964831373</v>
+        <v>85.60880529061041</v>
       </c>
       <c r="J10">
-        <v>9.661635036204377</v>
+        <v>6.961589014260469</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.88320280852609</v>
+        <v>22.25927489619215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.94157951104755</v>
+        <v>31.10503410527772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.24580427003773</v>
+        <v>7.824176873576659</v>
       </c>
       <c r="E11">
-        <v>14.23271206016586</v>
+        <v>12.7260565802862</v>
       </c>
       <c r="F11">
-        <v>29.42418676710619</v>
+        <v>33.84037352165998</v>
       </c>
       <c r="G11">
-        <v>31.06815545768676</v>
+        <v>44.97216782544191</v>
       </c>
       <c r="H11">
-        <v>13.40783664559342</v>
+        <v>11.57958559616365</v>
       </c>
       <c r="I11">
-        <v>52.08534703260537</v>
+        <v>88.66174843512337</v>
       </c>
       <c r="J11">
-        <v>9.66863450946393</v>
+        <v>7.093104964142621</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.036730358788</v>
+        <v>23.08420859239376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14533481163442</v>
+        <v>31.50609682796114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.25074430124067</v>
+        <v>7.883252143055712</v>
       </c>
       <c r="E12">
-        <v>14.25040869153869</v>
+        <v>12.85145187575497</v>
       </c>
       <c r="F12">
-        <v>29.52098477406991</v>
+        <v>34.24821943123364</v>
       </c>
       <c r="G12">
-        <v>31.26546135151553</v>
+        <v>45.5755070343812</v>
       </c>
       <c r="H12">
-        <v>13.42228238153746</v>
+        <v>11.68912969130206</v>
       </c>
       <c r="I12">
-        <v>52.67744494454099</v>
+        <v>89.79490566287602</v>
       </c>
       <c r="J12">
-        <v>9.671530688125269</v>
+        <v>7.143124101906018</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.09532649437566</v>
+        <v>23.39789613842312</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10165446781605</v>
+        <v>31.42006755568609</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.2496688993483</v>
+        <v>7.870528631660852</v>
       </c>
       <c r="E13">
-        <v>14.24657929015571</v>
+        <v>12.82447554826529</v>
       </c>
       <c r="F13">
-        <v>29.50011618201164</v>
+        <v>34.16059146935534</v>
       </c>
       <c r="G13">
-        <v>31.22302119215394</v>
+        <v>45.44598149977126</v>
       </c>
       <c r="H13">
-        <v>13.4191546736729</v>
+        <v>11.66555649177795</v>
       </c>
       <c r="I13">
-        <v>52.55050504930303</v>
+        <v>89.55187185858716</v>
       </c>
       <c r="J13">
-        <v>9.670896042929174</v>
+        <v>7.13234218248206</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.08268715005322</v>
+        <v>23.33056228089168</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.95843357864365</v>
+        <v>31.13818630349806</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.24620551355724</v>
+        <v>7.829036723090279</v>
       </c>
       <c r="E14">
-        <v>14.23415979427644</v>
+        <v>12.73638628952624</v>
       </c>
       <c r="F14">
-        <v>29.43214062403234</v>
+        <v>33.87402139050091</v>
       </c>
       <c r="G14">
-        <v>31.08441160933745</v>
+        <v>45.02199189706984</v>
       </c>
       <c r="H14">
-        <v>13.40901763072708</v>
+        <v>11.58860640194349</v>
       </c>
       <c r="I14">
-        <v>52.13432002565632</v>
+        <v>88.75543065175448</v>
       </c>
       <c r="J14">
-        <v>9.668867865316763</v>
+        <v>7.097215810650949</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.041542187005</v>
+        <v>23.1101171303318</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.87011552320599</v>
+        <v>30.96450739264489</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.24411774134096</v>
+        <v>7.803623947890643</v>
       </c>
       <c r="E15">
-        <v>14.22660571722196</v>
+        <v>12.68234257678708</v>
       </c>
       <c r="F15">
-        <v>29.3905677953432</v>
+        <v>33.69787733352865</v>
       </c>
       <c r="G15">
-        <v>30.99935692190976</v>
+        <v>44.76106954905102</v>
       </c>
       <c r="H15">
-        <v>13.40285702873039</v>
+        <v>11.54141698474384</v>
       </c>
       <c r="I15">
-        <v>51.87770123785431</v>
+        <v>88.26461613821014</v>
       </c>
       <c r="J15">
-        <v>9.667657493565205</v>
+        <v>7.075727673001373</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.01639798227277</v>
+        <v>22.97442915169787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.3549581758265</v>
+        <v>29.95347700689886</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.23267120236419</v>
+        <v>7.658049621209797</v>
       </c>
       <c r="E16">
-        <v>14.18413987375155</v>
+        <v>12.37135007334847</v>
       </c>
       <c r="F16">
-        <v>29.15337906325784</v>
+        <v>32.67911284823854</v>
       </c>
       <c r="G16">
-        <v>30.50976287739119</v>
+        <v>43.24705289805362</v>
       </c>
       <c r="H16">
-        <v>13.36830448962632</v>
+        <v>11.27017614678107</v>
       </c>
       <c r="I16">
-        <v>50.38125698588405</v>
+        <v>85.40605400812059</v>
       </c>
       <c r="J16">
-        <v>9.66121205336599</v>
+        <v>6.953025388091367</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.87323624657447</v>
+        <v>22.21195203974023</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03087938850338</v>
+        <v>29.31904709826847</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.22611296863152</v>
+        <v>7.568820126177522</v>
       </c>
       <c r="E17">
-        <v>14.15883154440653</v>
+        <v>12.17945946805011</v>
       </c>
       <c r="F17">
-        <v>29.00887749292154</v>
+        <v>32.04582423653046</v>
       </c>
       <c r="G17">
-        <v>30.20763995618443</v>
+        <v>42.30136915081192</v>
       </c>
       <c r="H17">
-        <v>13.34778449073917</v>
+        <v>11.10308604386207</v>
       </c>
       <c r="I17">
-        <v>49.44026495104949</v>
+        <v>83.61107613539416</v>
       </c>
       <c r="J17">
-        <v>9.657696969306752</v>
+        <v>6.8781560842979</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.78627997669675</v>
+        <v>21.79509297475175</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.84153069387959</v>
+        <v>28.94886706821214</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.22251205291303</v>
+        <v>7.517536334960395</v>
       </c>
       <c r="E18">
-        <v>14.14455113750949</v>
+        <v>12.06870196166401</v>
       </c>
       <c r="F18">
-        <v>28.92616169188516</v>
+        <v>31.67854091553776</v>
       </c>
       <c r="G18">
-        <v>30.03328550724626</v>
+        <v>41.75118650442424</v>
       </c>
       <c r="H18">
-        <v>13.33623314540066</v>
+        <v>11.00674208214253</v>
       </c>
       <c r="I18">
-        <v>48.89063678530206</v>
+        <v>82.56331114050366</v>
       </c>
       <c r="J18">
-        <v>9.655836931840525</v>
+        <v>6.835248061867973</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.73659984591648</v>
+        <v>21.55353961578016</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.77691535278072</v>
+        <v>28.82261968951621</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.22132231765938</v>
+        <v>7.50018025509769</v>
       </c>
       <c r="E19">
-        <v>14.1397637826668</v>
+        <v>12.03113694804147</v>
       </c>
       <c r="F19">
-        <v>28.89822649347399</v>
+        <v>31.55366691015653</v>
       </c>
       <c r="G19">
-        <v>29.97415906526003</v>
+        <v>41.56382679877209</v>
       </c>
       <c r="H19">
-        <v>13.33236543278871</v>
+        <v>10.9740824934091</v>
       </c>
       <c r="I19">
-        <v>48.7031053676155</v>
+        <v>82.20590737232402</v>
       </c>
       <c r="J19">
-        <v>9.655234972994768</v>
+        <v>6.820747362980866</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.719837975887</v>
+        <v>21.47144909934847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.06568338928438</v>
+        <v>29.3871277121382</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.22679340089665</v>
+        <v>7.578315013399413</v>
       </c>
       <c r="E20">
-        <v>14.16149713654993</v>
+        <v>12.19992709184485</v>
       </c>
       <c r="F20">
-        <v>29.02421940351402</v>
+        <v>32.11355332700064</v>
       </c>
       <c r="G20">
-        <v>30.23986323467777</v>
+        <v>42.40268475009512</v>
       </c>
       <c r="H20">
-        <v>13.34994293450564</v>
+        <v>11.12089811782895</v>
       </c>
       <c r="I20">
-        <v>49.54130510666898</v>
+        <v>83.80373907579259</v>
       </c>
       <c r="J20">
-        <v>9.658054425068856</v>
+        <v>6.886110172950845</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.79550231663106</v>
+        <v>21.83965378849384</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.00062425561376</v>
+        <v>31.22119358573335</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.24721578547861</v>
+        <v>7.841223490870733</v>
       </c>
       <c r="E21">
-        <v>14.23779662850087</v>
+        <v>12.76227834561428</v>
       </c>
       <c r="F21">
-        <v>29.45209347683171</v>
+        <v>33.95832145649113</v>
       </c>
       <c r="G21">
-        <v>31.12515671041986</v>
+        <v>45.14678110243407</v>
       </c>
       <c r="H21">
-        <v>13.41198500623147</v>
+        <v>11.61122009110748</v>
       </c>
       <c r="I21">
-        <v>52.25691677039583</v>
+        <v>88.98998307435166</v>
       </c>
       <c r="J21">
-        <v>9.669456935443923</v>
+        <v>7.107527514627655</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.05361540318239</v>
+        <v>23.17500433431802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.58522931221873</v>
+        <v>32.37412346042075</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.26207120930413</v>
+        <v>8.013176768260077</v>
       </c>
       <c r="E22">
-        <v>14.29005360826744</v>
+        <v>13.12598524774172</v>
       </c>
       <c r="F22">
-        <v>29.73468108382609</v>
+        <v>35.13687527096462</v>
       </c>
       <c r="G22">
-        <v>31.697115733862</v>
+        <v>46.88562788043163</v>
       </c>
       <c r="H22">
-        <v>13.4547163867481</v>
+        <v>11.92924141047655</v>
       </c>
       <c r="I22">
-        <v>53.9560509119212</v>
+        <v>92.24610226002342</v>
       </c>
       <c r="J22">
-        <v>9.678340111134078</v>
+        <v>7.253495651296138</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.22495736481463</v>
+        <v>24.07869950038392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.27564066207565</v>
+        <v>31.7629070589364</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.25400542469682</v>
+        <v>7.921399747296546</v>
       </c>
       <c r="E23">
-        <v>14.26194779234118</v>
+        <v>12.93223246155928</v>
       </c>
       <c r="F23">
-        <v>29.58361782606772</v>
+        <v>34.5102625208118</v>
       </c>
       <c r="G23">
-        <v>31.39252465651737</v>
+        <v>45.96250545120231</v>
       </c>
       <c r="H23">
-        <v>13.43171277708358</v>
+        <v>11.75974209959122</v>
       </c>
       <c r="I23">
-        <v>53.05615300520156</v>
+        <v>90.52029302560383</v>
       </c>
       <c r="J23">
-        <v>9.673468545733964</v>
+        <v>7.175479358536359</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.13328259245116</v>
+        <v>23.59904883524159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.04995794057753</v>
+        <v>29.35636541739249</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.22648524933143</v>
+        <v>7.574022324250221</v>
       </c>
       <c r="E24">
-        <v>14.16029118155925</v>
+        <v>12.19067503578663</v>
       </c>
       <c r="F24">
-        <v>29.01728219750559</v>
+        <v>32.08294295896502</v>
       </c>
       <c r="G24">
-        <v>30.22529712948352</v>
+        <v>42.35690021348311</v>
       </c>
       <c r="H24">
-        <v>13.34896633560851</v>
+        <v>11.11284615255833</v>
       </c>
       <c r="I24">
-        <v>49.49565175058866</v>
+        <v>83.71668543464087</v>
       </c>
       <c r="J24">
-        <v>9.657892318257417</v>
+        <v>6.882513706472721</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.79133192062994</v>
+        <v>21.81951374431372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.61539234780995</v>
+        <v>26.55830670834306</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.20335309967254</v>
+        <v>7.200976991556038</v>
       </c>
       <c r="E25">
-        <v>14.0612345977308</v>
+        <v>11.37637603864035</v>
       </c>
       <c r="F25">
-        <v>28.42194760795592</v>
+        <v>29.34947784744206</v>
       </c>
       <c r="G25">
-        <v>28.94502986164266</v>
+        <v>38.22958794722871</v>
       </c>
       <c r="H25">
-        <v>13.26934136391781</v>
+        <v>10.40628723743079</v>
       </c>
       <c r="I25">
-        <v>45.33509062920486</v>
+        <v>75.78973891881795</v>
       </c>
       <c r="J25">
-        <v>9.647278360295349</v>
+        <v>6.572530982669194</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.43547031540893</v>
+        <v>20.02571677134746</v>
       </c>
     </row>
   </sheetData>
